--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>6</v>

--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Fruit</t>
   </si>
@@ -35,37 +35,37 @@
     <t>Yellow</t>
   </si>
   <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Kivi</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Kivi</t>
-  </si>
-  <si>
-    <t>Green</t>
   </si>
 </sst>
 </file>
@@ -643,41 +643,41 @@
       <c r="C2" s="5">
         <v>400</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
+      <c r="D2" s="6">
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="5">
         <v>345</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="5">
         <v>187</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -686,35 +686,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="5">
         <v>399</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="8">
         <v>199</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -760,40 +760,40 @@
         <v>400</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="5">
         <v>345</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="5">
         <v>187</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -802,35 +802,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="5">
         <v>399</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="8">
         <v>199</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
